--- a/src/main/java/com/qa/testData/movieList.xlsx
+++ b/src/main/java/com/qa/testData/movieList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kokul.siva\Documents\personal\PIMS_AUTOMATION_CODE\PIMS_Automation_TDD\src\main\java\com\qa\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kokul.siva\Documents\personal\PIMS_AUTOMATION_CODE\Automation_TDD2\src\main\java\com\qa\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3452046-0D35-4A99-9EEA-D91C8E43F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5AFED2-1D3F-4D56-A6CA-1A9BCD753459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{150415FD-5E21-4921-9951-096C304E26FC}"/>
   </bookViews>
@@ -36,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>movieName</t>
   </si>
   <si>
     <t>Pushpa: The Rise</t>
-  </si>
-  <si>
-    <t>Varisu</t>
-  </si>
-  <si>
-    <t>Thunivu</t>
   </si>
 </sst>
 </file>
@@ -399,11 +393,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F91E46F-2A01-4FB6-B049-4EDAE50BC8E4}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -420,16 +412,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
